--- a/PRM_Subject/BuffetRestaurantPlan/BuffetRestaurantProjectPlan.xlsx
+++ b/PRM_Subject/BuffetRestaurantPlan/BuffetRestaurantProjectPlan.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUY\Desktop\FinalProject\FinalProjectMobile\PRM_Subject\BuffetRestaurantPlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalProjectPRM\FinalProjectMobile\PRM_Subject\BuffetRestaurantPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483498E3-1F1C-4805-9E40-B4ED9712ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC86F9E3-6D6C-4873-B411-5DF8A21A53EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
